--- a/data/time fib.xlsx
+++ b/data/time fib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programProjects\C++\vpv1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB133889-71F9-47BC-9B5A-28F5EF789FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9668993-5946-4F47-9B02-E5D114A0B09C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{28983EE6-A398-48C0-913F-8AECEC48523D}"/>
   </bookViews>
@@ -26,7 +26,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +37,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,20 +111,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -446,7 +443,7 @@
   <dimension ref="E2:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I5"/>
+      <selection activeCell="I3" sqref="I3:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -458,70 +455,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="5:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" s="1">
-        <v>2977</v>
+        <v>2895</v>
       </c>
       <c r="F3" s="2">
-        <v>6202200000</v>
+        <v>5069100000</v>
       </c>
       <c r="G3" s="2">
-        <v>461</v>
+        <v>323</v>
       </c>
       <c r="H3" s="2">
-        <v>897900000</v>
-      </c>
-      <c r="I3">
+        <v>598900000</v>
+      </c>
+      <c r="I3" s="5">
         <f>E3/G3</f>
-        <v>6.457700650759219</v>
-      </c>
-      <c r="J3">
+        <v>8.9628482972136219</v>
+      </c>
+      <c r="J3" s="5">
         <f>F3/H3</f>
-        <v>6.9074507183428002</v>
+        <v>8.464017365169477</v>
       </c>
     </row>
-    <row r="4" spans="5:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E4" s="3">
-        <v>2861</v>
+        <v>3440</v>
       </c>
       <c r="F4" s="4">
-        <v>6079341320</v>
+        <v>5073648204</v>
       </c>
       <c r="G4" s="4">
-        <v>451</v>
+        <v>730</v>
       </c>
       <c r="H4" s="4">
-        <v>959641190</v>
-      </c>
-      <c r="I4">
+        <v>598907577</v>
+      </c>
+      <c r="I4" s="5">
         <f t="shared" ref="I4:I5" si="0">E4/G4</f>
-        <v>6.3436807095343681</v>
-      </c>
-      <c r="J4">
+        <v>4.7123287671232879</v>
+      </c>
+      <c r="J4" s="5">
         <f t="shared" ref="J4:J5" si="1">F4/H4</f>
-        <v>6.3350149861741549</v>
+        <v>8.471504450510567</v>
       </c>
     </row>
-    <row r="5" spans="5:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E5" s="3">
-        <v>2782</v>
+        <v>2892</v>
       </c>
       <c r="F5" s="4">
-        <v>6389862780</v>
+        <v>5183124810</v>
       </c>
       <c r="G5" s="4">
-        <v>459</v>
+        <v>321</v>
       </c>
       <c r="H5" s="4">
-        <v>1000556727</v>
-      </c>
-      <c r="I5">
+        <v>655491520</v>
+      </c>
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
-        <v>6.0610021786492378</v>
-      </c>
-      <c r="J5">
+        <v>9.009345794392523</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="1"/>
-        <v>6.3863073502678072</v>
+        <v>7.9072339639115397</v>
       </c>
     </row>
   </sheetData>
